--- a/Orginal/Data/DataBase/元データ/PLData.xlsx
+++ b/Orginal/Data/DataBase/元データ/PLData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Desktop\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6513C1F-4449-4A04-85E0-750595E2165B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8327B6C-74AF-41D3-94D0-CA891CA90302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="345" windowWidth="15825" windowHeight="14010" activeTab="1" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
+    <workbookView xWindow="3825" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="モーション種類" comment="モーションの種類">Reference!$E$4:$E$13</definedName>
     <definedName name="モーション種類リスト" comment="モーションの種類とID">Reference!$E$4:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,34 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGI</t>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>ソフィエ</t>
   </si>
@@ -222,6 +194,34 @@
   </si>
   <si>
     <t>DIE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#STR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#VIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#AGI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5975AF20-CCAA-49B9-9D9F-8E05E4C6DEBD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -791,30 +791,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <f t="shared" ref="B2:B3" si="0">IF(A2="","",VLOOKUP(A2, キャラ種類リスト, 2, FALSE))</f>
@@ -838,7 +838,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" si="0"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71AACF-7657-41B5-A427-9F814CF09509}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -889,121 +889,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B5" si="0">IF(A3="","",VLOOKUP(A3, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D5" si="1">IF(C3="","",VLOOKUP(C3, モーション種類リスト, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" ref="B6" si="2">IF(A6="","",VLOOKUP(A6, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ref="D6" si="3">IF(C6="","",VLOOKUP(C6, モーション種類リスト, 2, FALSE))</f>
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7" si="4">IF(A7="","",VLOOKUP(A7, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7" si="5">IF(C7="","",VLOOKUP(C7, モーション種類リスト, 2, FALSE))</f>
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1035,37 +1035,37 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>10000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1073,14 +1073,14 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <f>IF(B5="","",C4+1)</f>
         <v>10001</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6">
         <f>F4+1</f>
@@ -1094,7 +1094,7 @@
         <v/>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F13" si="1">F5+1</f>
@@ -1108,7 +1108,7 @@
         <v/>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E13" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>

--- a/Orginal/Data/DataBase/元データ/PLData.xlsx
+++ b/Orginal/Data/DataBase/元データ/PLData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8327B6C-74AF-41D3-94D0-CA891CA90302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46061E-28BA-457F-B7EE-759D628B8DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
+    <workbookView xWindow="-22410" yWindow="600" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   <definedNames>
     <definedName name="キャラ種類" comment="キャラの種類">Reference!$B$4:$B$7</definedName>
     <definedName name="キャラ種類リスト" comment="キャラの種類とID">Reference!$B$4:$C$7</definedName>
-    <definedName name="モーション種類" comment="モーションの種類">Reference!$E$4:$E$13</definedName>
-    <definedName name="モーション種類リスト" comment="モーションの種類とID">Reference!$E$4:$F$13</definedName>
+    <definedName name="モーション種類" comment="モーションの種類">Reference!$E$4:$E$14</definedName>
+    <definedName name="モーション種類リスト" comment="モーションの種類とID">Reference!$E$4:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>ソフィエ</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -189,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Character/Damage.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DIE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,6 +215,17 @@
   </si>
   <si>
     <t>#AGI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USEITEM</t>
+  </si>
+  <si>
+    <t>USEITEM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character/UseItem.fbx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5975AF20-CCAA-49B9-9D9F-8E05E4C6DEBD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -791,25 +795,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -876,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71AACF-7657-41B5-A427-9F814CF09509}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -965,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -984,26 +988,26 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7" si="4">IF(A7="","",VLOOKUP(A7, キャラ種類リスト, 2, FALSE))</f>
+        <f>IF(A7="","",VLOOKUP(A7, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7" si="5">IF(C7="","",VLOOKUP(C7, モーション種類リスト, 2, FALSE))</f>
-        <v>6</v>
+        <f t="shared" ref="D7" si="4">IF(C7="","",VLOOKUP(C7, モーション種類リスト, 2, FALSE))</f>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1025,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03016D5-292A-4FC6-8181-BABA2929A2D9}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1097,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F13" si="1">F5+1</f>
+        <f t="shared" ref="F6:F14" si="1">F5+1</f>
         <v>2</v>
       </c>
     </row>
@@ -1126,7 +1130,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
@@ -1135,7 +1139,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
@@ -1144,7 +1148,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E11" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
@@ -1153,7 +1157,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
@@ -1162,11 +1166,20 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Orginal/Data/DataBase/元データ/PLData.xlsx
+++ b/Orginal/Data/DataBase/元データ/PLData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46061E-28BA-457F-B7EE-759D628B8DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8954F7-4B0C-4FD3-A01E-8B82D139123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22410" yWindow="600" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
+    <workbookView xWindow="11280" yWindow="705" windowWidth="15825" windowHeight="14010" activeTab="1" xr2:uid="{E5E59FA1-B88F-4CF8-98F5-0817A92DDD73}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="モーション種類" comment="モーションの種類">Reference!$E$4:$E$14</definedName>
     <definedName name="モーション種類リスト" comment="モーションの種類とID">Reference!$E$4:$F$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,14 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t>ソフィエ</t>
-  </si>
-  <si>
-    <t>ソフィエ</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>キャラ種類</t>
     <rPh sb="3" eb="5">
@@ -57,10 +50,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソフィエ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -126,13 +115,6 @@
     <t>UNIQUE3</t>
   </si>
   <si>
-    <t>モニィ</t>
-  </si>
-  <si>
-    <t>モニィ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -166,26 +148,10 @@
     <t>ATTACK</t>
   </si>
   <si>
-    <t>Character/Character.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DAMAGE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Character/Idle.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Character/Run.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Character/Attack.fbx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DIE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -225,7 +191,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Character/UseItem.fbx</t>
+    <t>PlayerA/Idle.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerA/Run.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerA/Attack.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerA/UseItem.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーA</t>
+  </si>
+  <si>
+    <t>プレイヤーA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーB</t>
+  </si>
+  <si>
+    <t>プレイヤーB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerB/UseItem.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerB/Idle.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerB/Run.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerB/Attack.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerA/PlayerA.fbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerB/PlayerB.fbx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -784,7 +800,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -795,30 +811,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7">
         <f t="shared" ref="B2:B3" si="0">IF(A2="","",VLOOKUP(A2, キャラ種類リスト, 2, FALSE))</f>
@@ -842,7 +858,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" si="0"/>
@@ -855,13 +871,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71AACF-7657-41B5-A427-9F814CF09509}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -893,121 +909,216 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C1" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B5" si="0">IF(A3="","",VLOOKUP(A3, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D5" si="1">IF(C3="","",VLOOKUP(C3, モーション種類リスト, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" ref="B6" si="2">IF(A6="","",VLOOKUP(A6, キャラ種類リスト, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ref="D6" si="3">IF(C6="","",VLOOKUP(C6, モーション種類リスト, 2, FALSE))</f>
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:B12" si="4">IF(A7="","",VLOOKUP(A7, キャラ種類リスト, 2, FALSE))</f>
+        <v>10000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7" si="5">IF(C7="","",VLOOKUP(C7, モーション種類リスト, 2, FALSE))</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:D12" si="6">IF(C8="","",VLOOKUP(C8, モーション種類リスト, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="B7" s="7">
-        <f>IF(A7="","",VLOOKUP(A7, キャラ種類リスト, 2, FALSE))</f>
-        <v>10000</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7" si="4">IF(C7="","",VLOOKUP(C7, モーション種類リスト, 2, FALSE))</f>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1016,14 +1127,15 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A7" xr:uid="{A47AFA1D-7BA3-42E1-8C97-018CF8716D42}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12" xr:uid="{A47AFA1D-7BA3-42E1-8C97-018CF8716D42}">
       <formula1>キャラ種類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7" xr:uid="{93311B5D-AB4F-413C-A2A0-910B25FDBFB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C12" xr:uid="{93311B5D-AB4F-413C-A2A0-910B25FDBFB4}">
       <formula1>モーション種類</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,44 +1144,44 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>10000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1077,14 +1189,14 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <f>IF(B5="","",C4+1)</f>
         <v>10001</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6">
         <f>F4+1</f>
@@ -1098,7 +1210,7 @@
         <v/>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F14" si="1">F5+1</f>
@@ -1112,7 +1224,7 @@
         <v/>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
@@ -1121,7 +1233,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
@@ -1130,7 +1242,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
@@ -1139,7 +1251,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
@@ -1148,7 +1260,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
@@ -1157,7 +1269,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
@@ -1166,7 +1278,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
@@ -1175,7 +1287,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
